--- a/trunk/documents/projects_and_modules.xlsx
+++ b/trunk/documents/projects_and_modules.xlsx
@@ -101,13 +101,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,10 +136,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +451,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,11 +481,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/trunk/documents/projects_and_modules.xlsx
+++ b/trunk/documents/projects_and_modules.xlsx
@@ -7,14 +7,19 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules Interfacing" sheetId="1" r:id="rId1"/>
+    <sheet name="Interfacing" sheetId="1" r:id="rId1"/>
+    <sheet name="Functionality" sheetId="2" r:id="rId2"/>
+    <sheet name="Projects" sheetId="3" r:id="rId3"/>
+    <sheet name="Robotics" sheetId="5" r:id="rId4"/>
+    <sheet name="Development Boards" sheetId="4" r:id="rId5"/>
+    <sheet name=" Modules PCB " sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>ATMega 328</t>
   </si>
@@ -95,6 +100,204 @@
   </si>
   <si>
     <t>PWM</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>Bi Directional Visitor Counter</t>
+  </si>
+  <si>
+    <t>Tachometer</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Xbee</t>
+  </si>
+  <si>
+    <t>Ethernel</t>
+  </si>
+  <si>
+    <t>Vibration Sensor</t>
+  </si>
+  <si>
+    <t>LM35</t>
+  </si>
+  <si>
+    <t>General Purpose Board</t>
+  </si>
+  <si>
+    <t>With LCD</t>
+  </si>
+  <si>
+    <t>With Motor Driver</t>
+  </si>
+  <si>
+    <t>With RS232</t>
+  </si>
+  <si>
+    <t>With Keypad</t>
+  </si>
+  <si>
+    <t>Digital Alarm Clock</t>
+  </si>
+  <si>
+    <t>Dot Matrix</t>
+  </si>
+  <si>
+    <t>Edge Avoiding Robot</t>
+  </si>
+  <si>
+    <t>Line Following Robot</t>
+  </si>
+  <si>
+    <t>Traffic Light Control</t>
+  </si>
+  <si>
+    <t>GSM Message Display</t>
+  </si>
+  <si>
+    <t>Color Sensor</t>
+  </si>
+  <si>
+    <t>Obstacle Avoiding Robot</t>
+  </si>
+  <si>
+    <t>Ultrasonic Distance Robot</t>
+  </si>
+  <si>
+    <t>Electronic Lock</t>
+  </si>
+  <si>
+    <t>RFID Based Student Attendance</t>
+  </si>
+  <si>
+    <t>RFID Based Car Parking</t>
+  </si>
+  <si>
+    <t>Propeller Message Display</t>
+  </si>
+  <si>
+    <t>Quiz Game</t>
+  </si>
+  <si>
+    <t>Temperature Monitoring System</t>
+  </si>
+  <si>
+    <t>Weather Logger</t>
+  </si>
+  <si>
+    <t>Train Gate Control</t>
+  </si>
+  <si>
+    <t>Fastest Finger First</t>
+  </si>
+  <si>
+    <t>Bluetooth based Home Automation</t>
+  </si>
+  <si>
+    <t>Home Security System</t>
+  </si>
+  <si>
+    <t>Titl Detector</t>
+  </si>
+  <si>
+    <t>Gesture Control Robot</t>
+  </si>
+  <si>
+    <t>Solar Tracker</t>
+  </si>
+  <si>
+    <t>IC Tester</t>
+  </si>
+  <si>
+    <t>Induction Motor Direction Control</t>
+  </si>
+  <si>
+    <t>Vehicle Accident Detection</t>
+  </si>
+  <si>
+    <t>Quad Copter</t>
+  </si>
+  <si>
+    <t>Infrared Remote Switch</t>
+  </si>
+  <si>
+    <t>Vehicle Tracking System</t>
+  </si>
+  <si>
+    <t>SD Card</t>
+  </si>
+  <si>
+    <t>DTMF Robot</t>
+  </si>
+  <si>
+    <t>DTMF Based Appliance Control</t>
+  </si>
+  <si>
+    <t>RF Based Appliance Control</t>
+  </si>
+  <si>
+    <t>Capacitance Meter</t>
+  </si>
+  <si>
+    <t>Ohm Meter</t>
+  </si>
+  <si>
+    <t>Voltmeter</t>
+  </si>
+  <si>
+    <t>Automatic Street Light with LED Glow</t>
+  </si>
+  <si>
+    <t>Moving message on LCD</t>
+  </si>
+  <si>
+    <t>IR Remote Sensor</t>
+  </si>
+  <si>
+    <t>Distance meter</t>
+  </si>
+  <si>
+    <t>Velocity meter</t>
+  </si>
+  <si>
+    <t>Train Coach Number Display</t>
+  </si>
+  <si>
+    <t>Count Down Timer</t>
+  </si>
+  <si>
+    <t>Heart Beat Sensor</t>
+  </si>
+  <si>
+    <t>Heart Beat Monitoring System</t>
+  </si>
+  <si>
+    <t>Robotic Arm Control</t>
+  </si>
+  <si>
+    <t>RF Remote Controlled Robot</t>
+  </si>
+  <si>
+    <t>IR Remote Controlled Robot</t>
+  </si>
+  <si>
+    <t>Fire Fighting Robot</t>
+  </si>
+  <si>
+    <t>With RF Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Servo Motor</t>
   </si>
 </sst>
 </file>
@@ -448,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,11 +805,480 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>8051</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>8051</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>8051</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>8051</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/documents/projects_and_modules.xlsx
+++ b/trunk/documents/projects_and_modules.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -303,8 +303,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,12 +319,24 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -339,14 +351,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,10 +453,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,7 +487,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -650,14 +662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -669,7 +681,7 @@
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>8051</v>
       </c>
@@ -680,180 +692,217 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>92</v>
       </c>
@@ -865,21 +914,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>8051</v>
@@ -891,22 +940,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -917,21 +966,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>8051</v>
@@ -943,182 +992,182 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1129,19 +1178,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>8051</v>
@@ -1153,47 +1202,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1204,19 +1253,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>8051</v>
@@ -1228,32 +1277,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1264,16 +1313,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6">
       <c r="F21" t="s">
         <v>91</v>
       </c>

--- a/trunk/documents/projects_and_modules.xlsx
+++ b/trunk/documents/projects_and_modules.xlsx
@@ -666,7 +666,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -726,6 +726,7 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -733,6 +734,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">

--- a/trunk/documents/projects_and_modules.xlsx
+++ b/trunk/documents/projects_and_modules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Interfacing" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Development Boards" sheetId="4" r:id="rId5"/>
     <sheet name=" Modules PCB " sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>ATMega 328</t>
   </si>
@@ -298,6 +298,51 @@
   </si>
   <si>
     <t>Servo Motor</t>
+  </si>
+  <si>
+    <t>4 channel relay board</t>
+  </si>
+  <si>
+    <t>4 digit seven segment display</t>
+  </si>
+  <si>
+    <t>adc module</t>
+  </si>
+  <si>
+    <t>avr programmer</t>
+  </si>
+  <si>
+    <t>dtmf module</t>
+  </si>
+  <si>
+    <t>rf module</t>
+  </si>
+  <si>
+    <t>keypad module</t>
+  </si>
+  <si>
+    <t>ldr module</t>
+  </si>
+  <si>
+    <t>motor driver</t>
+  </si>
+  <si>
+    <t>motor driver with ldr</t>
+  </si>
+  <si>
+    <t>rfid module</t>
+  </si>
+  <si>
+    <t>rs232 module</t>
+  </si>
+  <si>
+    <t>rtc module</t>
+  </si>
+  <si>
+    <t>dual channel relay driver</t>
+  </si>
+  <si>
+    <t>relay driver</t>
   </si>
 </sst>
 </file>
@@ -665,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -726,6 +771,7 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
+      <c r="B6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
@@ -742,6 +788,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -971,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -998,31 +1045,39 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>30</v>
       </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>45</v>
       </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>46</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>50</v>
       </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -1033,6 +1088,7 @@
       <c r="A9" t="s">
         <v>52</v>
       </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -1043,136 +1099,157 @@
       <c r="A11" t="s">
         <v>54</v>
       </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>55</v>
       </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>56</v>
       </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>57</v>
       </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>58</v>
       </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
+      <c r="B37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,14 +1393,92 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
         <v>91</v>

--- a/trunk/documents/projects_and_modules.xlsx
+++ b/trunk/documents/projects_and_modules.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Interfacing" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>ATMega 328</t>
   </si>
@@ -343,13 +343,25 @@
   </si>
   <si>
     <t>relay driver</t>
+  </si>
+  <si>
+    <t>ATMega8</t>
+  </si>
+  <si>
+    <t>ATMega16</t>
+  </si>
+  <si>
+    <t>AT89S52</t>
+  </si>
+  <si>
+    <t>RF Serial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,7 +376,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +395,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -396,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -406,6 +424,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +517,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,6 +552,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,28 +728,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1">
-        <v>8051</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -736,8 +758,14 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -745,7 +773,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -753,7 +781,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -761,20 +789,20 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -782,7 +810,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -790,169 +818,174 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -963,24 +996,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1">
-        <v>8051</v>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -988,23 +1022,29 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1015,24 +1055,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1">
-        <v>8051</v>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1040,212 +1080,218 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1257,22 +1303,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1">
-        <v>8051</v>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1280,48 +1326,54 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1332,22 +1384,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1">
-        <v>8051</v>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1355,33 +1407,39 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1392,94 +1450,92 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>91</v>
       </c>

--- a/trunk/documents/projects_and_modules.xlsx
+++ b/trunk/documents/projects_and_modules.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -360,8 +360,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,10 +517,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,7 +551,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -728,14 +726,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -748,7 +746,7 @@
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
@@ -765,15 +763,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -781,28 +780,29 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -818,73 +818,73 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -892,99 +892,99 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
@@ -996,14 +996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1011,7 +1011,7 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>110</v>
@@ -1029,22 +1029,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1055,21 +1055,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>110</v>
@@ -1087,211 +1087,211 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1303,19 +1303,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>110</v>
@@ -1333,47 +1333,47 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1384,19 +1384,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>110</v>
@@ -1414,32 +1414,32 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1450,92 +1450,92 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6">
       <c r="F21" t="s">
         <v>91</v>
       </c>

--- a/trunk/documents/projects_and_modules.xlsx
+++ b/trunk/documents/projects_and_modules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Interfacing" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +374,13 @@
       <color theme="1"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -414,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -425,6 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -779,6 +787,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -794,12 +803,15 @@
         <v>8</v>
       </c>
       <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:6">
@@ -823,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -876,6 +888,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
@@ -914,6 +927,7 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:4">
@@ -925,6 +939,7 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
@@ -957,37 +972,43 @@
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="3"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="C37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -999,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1033,21 +1054,33 @@
       <c r="A2" t="s">
         <v>26</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>27</v>
       </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>28</v>
       </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>78</v>
       </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1058,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,6 +1239,7 @@
       <c r="A21" t="s">
         <v>65</v>
       </c>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
@@ -1229,6 +1263,7 @@
       <c r="A25" t="s">
         <v>69</v>
       </c>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
@@ -1259,6 +1294,9 @@
       <c r="A30" t="s">
         <v>76</v>
       </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
@@ -1307,7 +1345,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1352,21 +1390,27 @@
       <c r="A5" t="s">
         <v>49</v>
       </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>62</v>
       </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>71</v>
       </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>87</v>
       </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -1377,6 +1421,7 @@
       <c r="A10" t="s">
         <v>89</v>
       </c>
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1388,7 +1433,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1418,31 +1463,44 @@
       <c r="A2" t="s">
         <v>36</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>37</v>
       </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>38</v>
       </c>
+      <c r="C4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>39</v>
       </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>40</v>
       </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>90</v>
       </c>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1453,87 +1511,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>107</v>
       </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
